--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_021.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_021.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295031EK2.07) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) High-pressure core spray</t>
-  </si>
-  <si>
-    <t>(295037EK3.06) Knowledge of the reasons for the following responses or actions as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.5 / 41.7 / 45.6) Maintaining heat sinks external to the containment</t>
+    <t>(295005AA1.02) Ability to operate and/or monitor the following as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.7 / 45.6) RPS</t>
+  </si>
+  <si>
+    <t>(295016AK3.02) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Turbine trip</t>
+  </si>
+  <si>
+    <t>(295030EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.8 to 41.10) Steam condensation</t>
+  </si>
+  <si>
+    <t>(295001AA2.02) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Neutron monitoring</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295023AK2.04) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) RMCS/RCIS</t>
+  </si>
+  <si>
+    <t>(295031EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.7 / 45.6) Low-pressure coolant injection (RHR)</t>
+  </si>
+  <si>
+    <t>(295021AK3.06) Knowledge of the reasons for the following responses or actions as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.5 / 45.6) Installing fuel pool gates</t>
+  </si>
+  <si>
+    <t>(295025EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.8 to 41.10) Exceeding safety limits</t>
   </si>
   <si>
     <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
   </si>
   <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.4.35) EMERGENCY PROCEDURES / PLAN Knowledge of nonlicensed operator responsibilities during an emergency (CFR: 41.10 / 43.1/ 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(600000AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 24) PLANT FIRE ON SITE: (CFR: 41.8 / 41.10 / 45.3) Firefighting methods for each type of fire</t>
-  </si>
-  <si>
-    <t>(295004AA1.01) Ability to operate and/or monitor the following as they apply to (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER: (CFR: 41.7 / 45.6) DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(295003AK2.05) Knowledge of the relationship between the (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER and the following systems or components: (CFR: 41.7 / 45.8) Decay heat removal systems</t>
-  </si>
-  <si>
-    <t>(295025EK3.10) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295006AA2.02) Ability to determine and/or interpret the following as they apply to (APE 6) SCRAM: (CFR: 41.10 / 43.5 / 45.13) Control rod position</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295024EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.8 to 41.10) Containment building integrity (Mark III)</t>
-  </si>
-  <si>
-    <t>(295026EA1.05) Ability to operate and/or monitor the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.7 / 45.6) RCIC</t>
-  </si>
-  <si>
-    <t>(295038EK2.11) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) MSIV leakage control</t>
-  </si>
-  <si>
-    <t>(700000AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Reactor and turbine trip criteria</t>
-  </si>
-  <si>
-    <t>(295016AA2.01) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295001) (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION (G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295018AA2.03) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss</t>
-  </si>
-  <si>
-    <t>(295030EA1.04) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Suppression pool makeup system(s)</t>
-  </si>
-  <si>
-    <t>(295027EK2.06) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Reactor/turbine pressure regulating system</t>
-  </si>
-  <si>
-    <t>(295005AK3.03) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Feedwater temperature decrease</t>
-  </si>
-  <si>
-    <t>(295010) (APE 10) HIGH DRYWELL PRESSURE (G2.1.18) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise logs, records, status boards, and reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295032EK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.8 to 41.10) Secondary containment leakage detection</t>
-  </si>
-  <si>
-    <t>(295035EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.7 / 45.6) Secondary containment ventilation</t>
-  </si>
-  <si>
-    <t>(295008AK2.07) Knowledge of the relationship between the (APE 8) HIGH REACTOR WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) HPCS</t>
-  </si>
-  <si>
-    <t>(295020AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 20) INADVERTENT CONTAINMENT ISOLATION: (CFR: 41.5 / 45.6) Reactor pressure response</t>
-  </si>
-  <si>
-    <t>(295012AA2.03) Ability to determine and/or interpret the following as they apply to (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Drywell humidity</t>
-  </si>
-  <si>
-    <t>(209002A4.07) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Keep fill pump</t>
-  </si>
-  <si>
-    <t>(400000K3.04) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Service water system</t>
-  </si>
-  <si>
-    <t>(212000A2.15) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Load rejection</t>
-  </si>
-  <si>
-    <t>(215004A3.03) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) RPS status</t>
-  </si>
-  <si>
-    <t>(300000K6.14) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF8 IA) INSTRUMENT AIR SYSTEM: (CFR: 41.8 / 45.7) Component cooling water system</t>
-  </si>
-  <si>
-    <t>(205000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE): (CFR: 41.5 / 45.3) System venting</t>
-  </si>
-  <si>
-    <t>(223002K2.01) (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF Knowledge of electrical power supplies to the following: (CFR: 41.7) Logic power supplies</t>
-  </si>
-  <si>
-    <t>(203000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 43.5 / 45.7 / 45.8) Recirculation system (BWR 3, 4)</t>
-  </si>
-  <si>
-    <t>(239002A1.05) Ability to predict and/or monitor changes in parameters associated with operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.5 / 45.5) Reactor water level</t>
-  </si>
-  <si>
-    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (G2.2.1) EQUIPMENT CONTROL Ability to perform pre-startup procedures for the facility, including operating those controls associated with plant equipment that could affect reactivity (CFR: 41.5 / 41.10 / 43.5 / 43.6 / 45.1)</t>
-  </si>
-  <si>
-    <t>(209001K4.08) Knowledge of (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic system initiation</t>
-  </si>
-  <si>
-    <t>(262002A4.01) Ability to manually operate and/or monitor the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfer of power sources</t>
-  </si>
-  <si>
-    <t>(215005K3.02) Knowledge of the effect that a loss or malfunction of the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor recirculation system (BWR 5, 6)</t>
-  </si>
-  <si>
-    <t>(218000A2.01) Ability to (a) predict the impacts of the following on the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Steam line break</t>
-  </si>
-  <si>
-    <t>(211000A3.08) Ability to monitor automatic operation of the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM including: (CFR: 41.7 / 45.7) System initiation</t>
-  </si>
-  <si>
-    <t>(264000K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET): (CFR: 41.7 / 45.7) Fuel oil components</t>
-  </si>
-  <si>
-    <t>(261000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM : (CFR: 41.5 / 45.3) Secondary containment pressure changes</t>
-  </si>
-  <si>
-    <t>(510000K2.02) (SF4 SWS*) SERVICE WATER SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Service water system valves (Class 1E)</t>
-  </si>
-  <si>
-    <t>(259002K1.10) Knowledge of the physical connections and/or cause and effect relationships between the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Emergency generator(s): FWCI</t>
-  </si>
-  <si>
-    <t>(263000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 DC) DC ELECTRICAL DISTRIBUTION including: (CFR: 41.5 / 45.5) Battery charging/discharging rate</t>
-  </si>
-  <si>
-    <t>(215003) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM (291008K1.04) BREAKERS, RELAYS, AND DISCONNECTS (CFR: 41.7) Operation of various push buttons, switches, and handles and the resulting action on breakers</t>
-  </si>
-  <si>
-    <t>(217000K4.07) Knowledge of (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) design features and/or interlocks that provide for the following: (CFR: 41.7) Automatic transfer of RCIC pump suction</t>
-  </si>
-  <si>
-    <t>(209002A4.14) Ability to manually operate and/or monitor the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Test return valve</t>
-  </si>
-  <si>
-    <t>(400000K3.12) Knowledge of the effect that a loss or malfunction of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Fuel pool cooling and cleanup system</t>
-  </si>
-  <si>
-    <t>(212000A2.12) Ability to (a) predict the impacts of the following on the (SF7 RPS) REACTOR PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Main turbine stop/control valve closure</t>
-  </si>
-  <si>
-    <t>(215004A3.04) Ability to monitor automatic operation of the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM including: (CFR: 41.7 / 45.7) Control rod block status</t>
-  </si>
-  <si>
-    <t>(201005) (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(241000K4.05) Knowledge of (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(510001A4.03) Ability to manually operate and/or monitor the (SF8 CWS*) CIRCULATING WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Cooling tower basin level</t>
-  </si>
-  <si>
-    <t>(233000K3.03) Knowledge of the effect that a loss or malfunction of the (SF9 FPCCU) FUEL POOL COOLING/CLEANUP will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Fuel pool water clarity</t>
-  </si>
-  <si>
-    <t>(216000A2.14) Ability to (a) predict the impacts of the following on the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Partial or complete loss of recirculation flow</t>
-  </si>
-  <si>
-    <t>(204000A3.07) Ability to monitor automatic operation of the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM including: (CFR: 41.7 / 45.7) System flow</t>
-  </si>
-  <si>
-    <t>(259001K6.09) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2 FWS) FEEDWATER SYSTEM: (CFR: 41.7 / 45.7) Reactor feedwater pump lube oil system</t>
-  </si>
-  <si>
-    <t>(290003K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF9 CRV) CONTROL ROOM VENTILATION: (CFR: 41.5 / 45.3) Control of airborne contamination (e.g., radiological, toxic gas, smoke)</t>
-  </si>
-  <si>
-    <t>(230000K2.03) (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE Knowledge of electrical power supplies to the following: (CFR: 41.7) Control logic</t>
-  </si>
-  <si>
-    <t>(272000K1.01) Knowledge of the physical connections and/or cause and effect relationships between the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Main steam system</t>
-  </si>
-  <si>
-    <t>(290001A1.03) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 SC) SECONDARY CONTAINMENT including: (CFR: 41.5 / 45.5) Reactor building differential pressure</t>
-  </si>
-  <si>
-    <t>(G2.1.7) CONDUCT OF OPERATIONS Ability to evaluate plant performance and make operational judgments based on operating characteristics, reactor behavior, and instrument interpretation (CFR: 41.5 / 43.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.18) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during shutdown operations, such as risk assessments and work prioritization (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>(295018) (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW) (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(700000AK2.10) Knowledge of the relationship between the (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES and the following systems or components: (CFR: 41.4 / 41.5 / 41.7 / 41.10 / 45.8) Emergency generators (diesel/jet)</t>
+  </si>
+  <si>
+    <t>(295003AA1.01) Ability to operate and/or monitor the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.7 / 45.6) AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(295006AK3.05) Knowledge of the reasons for the following responses or actions as they apply to (APE 6) SCRAM: (CFR: 41.5 / 45.6) Direct turbine generator trip</t>
+  </si>
+  <si>
+    <t>(295004AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER:(CFR: 41.8 to 41.10) Battery capacity</t>
+  </si>
+  <si>
+    <t>(295038EA2.04) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Source of offsite release</t>
+  </si>
+  <si>
+    <t>(295026) (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE (G2.2.42) EQUIPMENT CONTROL Ability to recognize system parameters that are entry-level conditions for technical specifications (CFR: 41.7 / 41.10 / 43.2 / 43.3 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295037EK2.20) Knowledge of the relationship between the (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN and the following systems or components: (CFR: 41.7 / 41.8 / 45.8) High-pressure core spray</t>
+  </si>
+  <si>
+    <t>(295024EA1.08) Ability to operate and/or monitor the following as they apply to (EPE 1) HIGH DRYWELL PRESSURE: (CFR: 41.7 / 45.6) ADS</t>
+  </si>
+  <si>
+    <t>(295027EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295033EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.10 / 43.5 / 45.13) Source of high area radiation</t>
+  </si>
+  <si>
+    <t>(500000) (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295020AK2.11) Knowledge of the relationship between the (APE 20) INADVERTENT CONTAINMENT ISOLATION and the following systems or components: (CFR: 41.7 / 45.8) SGTS/FRVS</t>
+  </si>
+  <si>
+    <t>(295002AA1.04) Ability to operate and/or monitor the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.7 / 45.6) PCIS/NSSSS</t>
+  </si>
+  <si>
+    <t>(295029EK3.03) Knowledge of the reasons for the following responses or actions as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295034EK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION: (CFR: 41.8 to 41.10) Radiation releases</t>
+  </si>
+  <si>
+    <t>(217000A2.05) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) DC power loss</t>
+  </si>
+  <si>
+    <t>(239002A3.01) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) SRV operation after ADS actuation</t>
+  </si>
+  <si>
+    <t>(510000A4.02) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Valve operations</t>
+  </si>
+  <si>
+    <t>(203000K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(261000K1.13) Knowledge of the physical connections and/or cause and effect relationships between the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM and the following systems: (CFR: 41.4 to 41.9 / 45.7 / 45.8) Fire protection system</t>
+  </si>
+  <si>
+    <t>(223002K5.01) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.5 / 45.3) Primary containment integrity</t>
+  </si>
+  <si>
+    <t>(264000K4.03) Knowledge of (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) design features and/or interlocks that provide for the following: (CFR: 41.7) Generator droop control</t>
+  </si>
+  <si>
+    <t>(215003K2.01) (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) IRM channels/detectors</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.1.4) CONDUCT OF OPERATIONS Knowledge of individual licensed operator responsibilities related to shift staffing, such as medical requirements, \u201cno-solo\u201d operation, maintenance of active license status, 10 CFR Part 55 (CFR: 41.10 / 43.2)</t>
+  </si>
+  <si>
+    <t>(205000A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) including: (CFR: 41.5 / 45.5) SDC/RHR pump flow</t>
+  </si>
+  <si>
+    <t>(215005K6.05) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.7 / 45.7) IRMs</t>
+  </si>
+  <si>
+    <t>(400000A2.14) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of AC electrical distribution system</t>
+  </si>
+  <si>
+    <t>(262001A3.06) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Tap changers</t>
+  </si>
+  <si>
+    <t>(215004A4.08) Ability to manually operate and/or monitor the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) SRMS channel bypass</t>
+  </si>
+  <si>
+    <t>(209001K3.05) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Drywell cooling</t>
+  </si>
+  <si>
+    <t>(263000K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF6 DC) DC ELECTRICAL DISTRIBUTION and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems</t>
+  </si>
+  <si>
+    <t>(218000K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM: (CFR: 41.5 / 45.3) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(211000K4.02) Knowledge of (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Component and system testing</t>
+  </si>
+  <si>
+    <t>(212000K2.01) (SF7 RPS) REACTOR PROTECTION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) RPS motor-generator sets</t>
+  </si>
+  <si>
+    <t>(300000) (SF8 IA) INSTRUMENT AIR SYSTEM (291007K1.06) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Reason for demineralizer temperature and flow limits</t>
+  </si>
+  <si>
+    <t>(209002A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM including: (CFR: 41.5 / 45.5) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(262002K6.01) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) AC electrical distribution</t>
+  </si>
+  <si>
+    <t>(217000A2.19) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High suppression pool temperature</t>
+  </si>
+  <si>
+    <t>(239002A3.09) Ability to monitor automatic operation of the (SF3 SRV) SAFETY RELIEF VALVES including: (CFR: 41.7 / 45.7) Low-low set logic</t>
+  </si>
+  <si>
+    <t>(510000A4.01) Ability to manually operate and/or monitor the (SF4 SWS*) SERVICE WATER SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Pump operations</t>
+  </si>
+  <si>
+    <t>(203000K3.03) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Automatic depressurization logic</t>
+  </si>
+  <si>
+    <t>(510001A1.02) Ability to predict and/or monitor changes in parameters associated with operation of the (SF8 CWS*) CIRCULATING WATER SYSTEM including: (CFR: 41.5 / 45.5) Circulating water flow</t>
+  </si>
+  <si>
+    <t>(226001K6.12) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE : (CFR: 41.7 / 45.7) Containment integrity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(245000A2.05) Ability to (a) predict the impacts of the following on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Generator trip </t>
+  </si>
+  <si>
+    <t>(234000A3.02) Ability to monitor automatic operation of the (SF8 FH) FUEL HANDLING including: (CFR: 41.7 / 45.7) Interlock operation</t>
+  </si>
+  <si>
+    <t>(272000A4.01) Ability to manually operate and/or monitor the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Radiation monitoring system recorders</t>
+  </si>
+  <si>
+    <t>(239003K3.01) Knowledge of the effect that a loss or malfunction of the (SF9 MSVLCS) MAIN STEAM ISOLATION VALVE LEAKAGE CONTROL SYSTEM (BWR 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.5 / 45.3) Radiation monitoring system</t>
+  </si>
+  <si>
+    <t>(201003K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM and the following systems: (CFR: 41.1 to 41.10 / 45.1 to 45.8) Reactor vessel and internals</t>
+  </si>
+  <si>
+    <t>(290002K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF4 RVI) REACTOR VESSEL INTERNALS: (CFR: 41.5 / 45.3) Safety limits</t>
+  </si>
+  <si>
+    <t>(230000K4.07) Knowledge of (SF5 RHR SPS) RHR/LPCI: TORUS/SUPPRESSION POOL SPRAY MODE design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of water hammer</t>
+  </si>
+  <si>
+    <t>(290001K2.01) (SF5 SC) SECONDARY CONTAINMENT Knowledge of electrical power supplies to the following: (CFR: 41.7) Airlock door interlock</t>
+  </si>
+  <si>
+    <t>(259001) (SF2 FWS) FEEDWATER SYSTEM (G2.2.13) EQUIPMENT CONTROL Knowledge of tagging and clearance procedures (CFR: 41.10 / 43.1 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.45) CONDUCT OF OPERATIONS Ability to identify and interpret diverse indications to validate the response of another indication (CFR: 41.7 / 43.5 / 45.4)</t>
+  </si>
+  <si>
+    <t>(G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.17) EQUIPMENT CONTROL Knowledge of the process for managing maintenance activities during power operations, such as risk assessments, work prioritization, and coordination with the transmission system operator (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.2) EQUIPMENT CONTROL Ability to manipulate the console controls as required to operate the facility between shutdown and designated power levels (CFR: 41.6 / 41.7 / 45.2)</t>
+  </si>
+  <si>
+    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.30) EMERGENCY PROCEDURES / PLAN Knowledge of events related to system operation/status that must be reported to internal organizations or external agencies, such as the State, the NRC, or the transmission system operator (CFR: 41.10 / 43.5 / 45.11)</t>
+  </si>
+  <si>
+    <t>(292007K1.03) FUEL DEPLETION AND BURNABLE POISONS (CFR: 41.1) Given a curve of K-effective versus core age, state the reasons for maximum, minimum, and inflection points</t>
+  </si>
+  <si>
+    <t>(292008K1.09) REACTOR OPERATIONAL PHYSICS (CFR: 41.1) (INTERMEDIATE RANGE OPERATION) List parameters that should be monitored and controlled during the intermediate phase of startup (from criticality to the point of adding heat (POAH))</t>
+  </si>
+  <si>
+    <t>(292005K1.11) CONTROL RODS (CFR: 41.1) Define deep rods and shallow rods</t>
+  </si>
+  <si>
+    <t>(293005K1.03) THERMODYNAMIC CYCLES (CFR: 41.14) Describe the steam quality/moisture effects on turbine integrity and efficiency</t>
+  </si>
+  <si>
+    <t>(293010K1.03) BRITTLE FRACTURE AND VESSEL THERMAL STRESS (CFR: 41.14) Define reference temperature</t>
+  </si>
+  <si>
+    <t>(293003K1.16) STEAM (CFR: 41.14) Define the following term: Subcooling</t>
+  </si>
+  <si>
+    <t>(295005) (APE 5) MAIN TURBINE GENERATOR TRIP (G2.4.26) EMERGENCY PROCEDURES / PLAN Knowledge of facility protection requirements, including fire brigade and portable firefighting equipment usage (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295016AA2.03) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.4.41) EMERGENCY PROCEDURES / PLAN: Knowledge of the emergency action level thresholds and classifications (CFR: 41.10 / 43.5 / 45.11).</t>
+  </si>
+  <si>
+    <t>(295001AA2.10) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Recirculation system/RPV differential temperatures</t>
+  </si>
+  <si>
+    <t>(600000) (APE 24) PLANT FIRE ON SITE (G2.1.5) CONDUCT OF OPERATIONS Ability to use procedures related to shift staffing, such as minimum crew complement or overtime limitations (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295023AA2.04) Ability to determine and/or interpret the following as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.10 / 43.5 / 45.13) Occurrence of fuel handling accident</t>
+  </si>
+  <si>
+    <t>(295031) (EPE 8) REACTOR LOW WATER LEVEL (G2.4.51) EMERGENCY PROCEDURES / PLAN Knowledge of emergency operating procedure exit conditions (e.g., emergency condition no longer exists or severe accident guideline entry is required) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295014) (APE 14) INADVERTENT REACTIVITY ADDITION (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+  </si>
+  <si>
+    <t>(295036EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Water level in the affected area</t>
+  </si>
+  <si>
+    <t>(295032) (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE (G2.1.47) CONDUCT OF OPERATIONS Ability to direct nonlicensed personnel activities inside the control room (CFR: 41.10 / 43.5 / 45.5 / 45.12 / 45.13)</t>
+  </si>
+  <si>
+    <t>(261000) (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM  (G2.1.35) CONDUCT OF OPERATIONS Knowledge of the fuel handling responsibilities of SROs (SRO Only) (CFR: 43.7)</t>
+  </si>
+  <si>
+    <t>(223002A2.01) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) AC electrical distribution failures</t>
+  </si>
+  <si>
+    <t>(264000) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(215003A2.08) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Improper overlap</t>
+  </si>
+  <si>
+    <t>(259002) (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM (G2.4.52) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan, emergency plan implementing procedures, emergency operating procedures, or severe accident guidelines (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(223001A2.11) Ability to (a) predict the impacts of the following on the (SF5 PCS) PRIMARY CONTAINMENT SYSTEM AND AUXILIARIES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Abnormal suppression pool level</t>
+  </si>
+  <si>
+    <t>(219000) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(286000A2.10) Ability to (a) predict the impacts of the following on the (SF8 FPS) FIRE PROTECTION SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Valve openings due to malfunction(s)</t>
+  </si>
+  <si>
+    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.43) CONDUCT OF OPERATIONS Ability to use an online power distribution monitoring system and/or procedures to determine the effects on reactivity of plant changes, such as RCS temperature, secondary plant, or fuel depletion (CFR: 41.10 / 43.6 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.2.4) EQUIPMENT CONTROL (Multi-unit license) Ability to explain the variations in control room layouts, systems, instrumentation, or procedural actions between units at a facility (CFR: 41.6 / 41.7 / 41.10 / 45.1 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.43) EQUIPMENT CONTROL Knowledge of the process used to track inoperable alarms (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292005K1.02) CONTROL RODS (CFR: 41.1) Name the material used for thermal neutron absorption in control rods</t>
-  </si>
-  <si>
-    <t>(292006K1.02) FISSION PRODUCT POISONS (CFR: 41.1) State the characteristics of xenon-135 as a fission product poison</t>
-  </si>
-  <si>
-    <t>(292002K1.11) NEUTRON LIFE CYCLE (CFR: 41.1) Define reactivity</t>
-  </si>
-  <si>
-    <t>(293006K1.22) FLUID STATICS AND DYNAMICS (CFR: 41.14) Define or explain the following term or concept: Two-phase flow</t>
-  </si>
-  <si>
-    <t>(293005K1.06) THERMODYNAMIC CYCLES (CFR: 41.14) Describe how changes in system parameters affect thermodynamic efficiency</t>
-  </si>
-  <si>
-    <t>(293003K1.09) STEAM (CFR: 41.14) Define the following term: Saturated vapor</t>
-  </si>
-  <si>
-    <t>(295031EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295019AK2.11) Knowledge of the relationship between the (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR and the following systems or components: (CFR: 41.7 / 45.8) Radwaste</t>
-  </si>
-  <si>
-    <t>(295021) (APE 21) LOSS OF SHUTDOWN COOLING (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(600000AA2.10) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit of long-term-breathing air system for control room</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.17) CONDUCT OF OPERATIONS Ability to make accurate, clear, and concise verbal reports (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
-  </si>
-  <si>
-    <t>(295011AA2.01) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
-  </si>
-  <si>
-    <t>(295007) (APE 7) HIGH REACTOR PRESSURE (G2.3.6) RADIATION CONTROL Ability to approve liquid or gaseous release permits (CFR: 41.13 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(295002AA2.02) Ability to determine and/or interpret the following as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(300000A2.01) Ability to (a) predict the impacts of the following on the (SF8 IA) INSTRUMENT AIR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Air dryer and filter malfunctions</t>
-  </si>
-  <si>
-    <t>(205000) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) (G2.2.5) EQUIPMENT CONTROL Knowledge of the process for making design or operating changes to the facility, such as 10 CFR 50.59, “Changes, Tests and Experiments,” screening and evaluation processes, administrative processes for temporary modifications, disabling annunciators, or installation of temporary equipment (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(223002A2.02) Ability to (a) predict the impacts of the following on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) DC electrical distribution failures</t>
-  </si>
-  <si>
-    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239002A2.04) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS actuation</t>
-  </si>
-  <si>
-    <t>(239001) (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(202002A2.10) Ability to (a) predict the impacts of the following on the (SF1 RSCTL) RECIRCULATION FLOW CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) High primary containment/drywell pressure</t>
-  </si>
-  <si>
-    <t>(219000) (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE (G2.4.2) EMERGENCY PROCEDURES / PLAN Knowledge of system setpoints, interlocks and automatic actions associated with emergency and abnormal operating procedure entry conditions (CFR: 41.7 / 45.7 / 45.8)</t>
-  </si>
-  <si>
-    <t>(G2.1.14) CONDUCT OF OPERATIONS Knowledge of criteria or conditions that require plantwide announcements, such as pump starts, reactor trips, and mode changes (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
-  </si>
-  <si>
-    <t>(G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
     <t>(G2.3.14) RADIATION CONTROL Knowledge of radiation or contamination hazards that may arise during normal, abnormal, or emergency conditions or activities, such as analysis and interpretation of radiation and activity readings as they pertain to administrative, normal, abnormal, and emergency procedures, or analysis and interpretation of coolant activity, including comparison to emergency plan or regulatory limits (SRO Only) (CFR: 43.4 / 45.10)</t>
   </si>
   <si>
+    <t>(G2.4.40) EMERGENCY PROCEDURES / PLAN Knowledge of SRO responsibilities in emergency plan implementing procedures (SRO Only) (CFR: 43.5 / 45.11)</t>
+  </si>
+  <si>
     <t>(G2.4.20) EMERGENCY PROCEDURES / PLAN Knowledge of the operational implications of emergency and abnormal operating procedures warnings, cautions, and notes (CFR: 41.10 / 43.5 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K3</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>G</t>
   </si>
   <si>
     <t>K2</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A1</t>
+    <t>A3</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>A3</t>
+    <t>K5</t>
+  </si>
+  <si>
+    <t>K4</t>
   </si>
   <si>
     <t>K6</t>
   </si>
   <si>
-    <t>K5</t>
-  </si>
-  <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,217 +385,217 @@
     <t>T</t>
   </si>
   <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295030</t>
+  </si>
+  <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
     <t>295031</t>
   </si>
   <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295038</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
     <t>295037</t>
   </si>
   <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>600000</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295023</t>
-  </si>
-  <si>
     <t>295024</t>
   </si>
   <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>295038</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295030</t>
-  </si>
-  <si>
     <t>295027</t>
   </si>
   <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295010</t>
+    <t>295033</t>
+  </si>
+  <si>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295020</t>
+  </si>
+  <si>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295029</t>
+  </si>
+  <si>
+    <t>295034</t>
+  </si>
+  <si>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>510000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>205000</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>262001</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>212000</t>
+  </si>
+  <si>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>209002</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>510001</t>
+  </si>
+  <si>
+    <t>226001</t>
+  </si>
+  <si>
+    <t>245000</t>
+  </si>
+  <si>
+    <t>234000</t>
+  </si>
+  <si>
+    <t>272000</t>
+  </si>
+  <si>
+    <t>239003</t>
+  </si>
+  <si>
+    <t>201003</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>230000</t>
+  </si>
+  <si>
+    <t>290001</t>
+  </si>
+  <si>
+    <t>259001</t>
+  </si>
+  <si>
+    <t>292007</t>
+  </si>
+  <si>
+    <t>292008</t>
+  </si>
+  <si>
+    <t>292005</t>
+  </si>
+  <si>
+    <t>293005</t>
+  </si>
+  <si>
+    <t>293010</t>
+  </si>
+  <si>
+    <t>293003</t>
+  </si>
+  <si>
+    <t>295014</t>
+  </si>
+  <si>
+    <t>295036</t>
   </si>
   <si>
     <t>295032</t>
   </si>
   <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295012</t>
-  </si>
-  <si>
-    <t>209002</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>212000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>262001</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
-    <t>510000</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>201005</t>
-  </si>
-  <si>
-    <t>241000</t>
-  </si>
-  <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>233000</t>
-  </si>
-  <si>
-    <t>216000</t>
-  </si>
-  <si>
-    <t>204000</t>
-  </si>
-  <si>
-    <t>259001</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>230000</t>
-  </si>
-  <si>
-    <t>272000</t>
-  </si>
-  <si>
-    <t>290001</t>
-  </si>
-  <si>
-    <t>292005</t>
-  </si>
-  <si>
-    <t>292006</t>
-  </si>
-  <si>
-    <t>292002</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>293005</t>
-  </si>
-  <si>
-    <t>293003</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>295007</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>202002</t>
+    <t>223001</t>
   </si>
   <si>
     <t>219000</t>
+  </si>
+  <si>
+    <t>286000</t>
   </si>
 </sst>
 </file>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>4.1</v>
+        <v>3.6</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>4.3</v>
+        <v>3.9</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>2.7</v>
+        <v>4.1</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>2.8</v>
+        <v>3.9</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1426,10 +1426,10 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="D28" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D29" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1494,10 +1494,10 @@
         <v>35</v>
       </c>
       <c r="C32">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="D35" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="D36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,10 +1579,10 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
         <v>158</v>
@@ -1596,7 +1596,7 @@
         <v>41</v>
       </c>
       <c r="C38">
-        <v>4.5</v>
+        <v>3.1</v>
       </c>
       <c r="D38" t="s">
         <v>115</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.6</v>
+        <v>2.9</v>
       </c>
       <c r="D40" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>4.1</v>
+        <v>2.8</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.6</v>
+        <v>2.8</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="D47" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,10 +1766,10 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D48" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -1783,7 +1783,7 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D49" t="s">
         <v>115</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="D50" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D51" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,10 +1868,10 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="D54" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
         <v>171</v>
@@ -1885,7 +1885,7 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.8</v>
+        <v>4.3</v>
       </c>
       <c r="D56" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D57" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="D63" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2072,7 +2072,7 @@
         <v>69</v>
       </c>
       <c r="C66">
-        <v>2.7</v>
+        <v>3.9</v>
       </c>
       <c r="D66" t="s">
         <v>117</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>3</v>
+        <v>4.6</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2123,7 +2123,7 @@
         <v>72</v>
       </c>
       <c r="C69">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D69" t="s">
         <v>119</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.4</v>
+        <v>2.7</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,7 +2276,7 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="D78" t="s">
         <v>108</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>2.5</v>
+        <v>4.6</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2310,7 +2310,7 @@
         <v>83</v>
       </c>
       <c r="C80">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="D80" t="s">
         <v>108</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2344,7 +2344,7 @@
         <v>85</v>
       </c>
       <c r="C82">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="D82" t="s">
         <v>108</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2381,7 +2381,7 @@
         <v>4</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,7 +2446,7 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="D88" t="s">
         <v>108</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>3.6</v>
+        <v>4.7</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2480,7 +2480,7 @@
         <v>93</v>
       </c>
       <c r="C90">
-        <v>4.3</v>
+        <v>3.5</v>
       </c>
       <c r="D90" t="s">
         <v>108</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,7 +2514,7 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>4.5</v>
+        <v>3.7</v>
       </c>
       <c r="D92" t="s">
         <v>108</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,7 +2548,7 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.6</v>
+        <v>2.9</v>
       </c>
       <c r="D94" t="s">
         <v>108</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2599,7 +2599,7 @@
         <v>100</v>
       </c>
       <c r="C97">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="D97" t="s">
         <v>118</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
